--- a/stock_predictor_ai/data/cleaned/RIOT.xlsx
+++ b/stock_predictor_ai/data/cleaned/RIOT.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2324"/>
+  <dimension ref="A1:F2325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46929,6 +46929,26 @@
         <v>8310185</v>
       </c>
     </row>
+    <row r="2325">
+      <c r="A2325" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2325" t="n">
+        <v>11.59479999542236</v>
+      </c>
+      <c r="C2325" t="n">
+        <v>11.81999969482422</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>11.58500003814697</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>2693926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/RIOT.xlsx
+++ b/stock_predictor_ai/data/cleaned/RIOT.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2325"/>
+  <dimension ref="A1:F2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46949,6 +46949,26 @@
         <v>2693926</v>
       </c>
     </row>
+    <row r="2326">
+      <c r="A2326" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2326" t="n">
+        <v>12.10000038146973</v>
+      </c>
+      <c r="C2326" t="n">
+        <v>12.40499973297119</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>11.89999961853027</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>30184800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/RIOT.xlsx
+++ b/stock_predictor_ai/data/cleaned/RIOT.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2326"/>
+  <dimension ref="A1:F2327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46969,6 +46969,26 @@
         <v>30184800</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2327" t="n">
+        <v>15.09000015258789</v>
+      </c>
+      <c r="C2327" t="n">
+        <v>15.09500026702881</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>14.09000015258789</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>14.15499973297119</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>17403683</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/RIOT.xlsx
+++ b/stock_predictor_ai/data/cleaned/RIOT.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2327"/>
+  <dimension ref="A1:F2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46989,6 +46989,26 @@
         <v>17403683</v>
       </c>
     </row>
+    <row r="2328">
+      <c r="A2328" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2328" t="n">
+        <v>13.90069961547852</v>
+      </c>
+      <c r="C2328" t="n">
+        <v>14.30000019073486</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>12.97000026702881</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>13.30000019073486</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>32725221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/RIOT.xlsx
+++ b/stock_predictor_ai/data/cleaned/RIOT.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2328"/>
+  <dimension ref="A1:F2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46909,106 +46911,6 @@
         <v>45810900</v>
       </c>
     </row>
-    <row r="2324">
-      <c r="A2324" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2324" t="n">
-        <v>12.4350004196167</v>
-      </c>
-      <c r="C2324" t="n">
-        <v>12.72999954223633</v>
-      </c>
-      <c r="D2324" t="n">
-        <v>12.09000015258789</v>
-      </c>
-      <c r="E2324" t="n">
-        <v>12.23499965667725</v>
-      </c>
-      <c r="F2324" t="n">
-        <v>8310185</v>
-      </c>
-    </row>
-    <row r="2325">
-      <c r="A2325" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2325" t="n">
-        <v>11.59479999542236</v>
-      </c>
-      <c r="C2325" t="n">
-        <v>11.81999969482422</v>
-      </c>
-      <c r="D2325" t="n">
-        <v>11.58500003814697</v>
-      </c>
-      <c r="E2325" t="n">
-        <v>11.80000019073486</v>
-      </c>
-      <c r="F2325" t="n">
-        <v>2693926</v>
-      </c>
-    </row>
-    <row r="2326">
-      <c r="A2326" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2326" t="n">
-        <v>12.10000038146973</v>
-      </c>
-      <c r="C2326" t="n">
-        <v>12.40499973297119</v>
-      </c>
-      <c r="D2326" t="n">
-        <v>11.89999961853027</v>
-      </c>
-      <c r="E2326" t="n">
-        <v>12.19999980926514</v>
-      </c>
-      <c r="F2326" t="n">
-        <v>30184800</v>
-      </c>
-    </row>
-    <row r="2327">
-      <c r="A2327" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2327" t="n">
-        <v>15.09000015258789</v>
-      </c>
-      <c r="C2327" t="n">
-        <v>15.09500026702881</v>
-      </c>
-      <c r="D2327" t="n">
-        <v>14.09000015258789</v>
-      </c>
-      <c r="E2327" t="n">
-        <v>14.15499973297119</v>
-      </c>
-      <c r="F2327" t="n">
-        <v>17403683</v>
-      </c>
-    </row>
-    <row r="2328">
-      <c r="A2328" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2328" t="n">
-        <v>13.90069961547852</v>
-      </c>
-      <c r="C2328" t="n">
-        <v>14.30000019073486</v>
-      </c>
-      <c r="D2328" t="n">
-        <v>12.97000026702881</v>
-      </c>
-      <c r="E2328" t="n">
-        <v>13.30000019073486</v>
-      </c>
-      <c r="F2328" t="n">
-        <v>32725221</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
